--- a/Calculator.xlsx
+++ b/Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\3D Druck\klipper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53ba3363fdfe930c/Dokumente/GitHub/Vyper_extended/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A457F5BF-0579-4160-B1D2-CEBD6EB0C269}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>IST</t>
-  </si>
-  <si>
-    <t>SOLL</t>
-  </si>
-  <si>
-    <t>Rotation Distanz</t>
-  </si>
-  <si>
-    <t>Pressure Advance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>mm</t>
   </si>
@@ -54,14 +42,50 @@
     <t>PA Wert</t>
   </si>
   <si>
-    <t>gemessen:</t>
+    <t>Should be /</t>
+  </si>
+  <si>
+    <t>gewünschte Länge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extruded lenght / </t>
+  </si>
+  <si>
+    <t>extrudiert</t>
+  </si>
+  <si>
+    <t>aktuelle Rotation Distanz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current rotation distance / </t>
+  </si>
+  <si>
+    <t>new rotation distance /</t>
+  </si>
+  <si>
+    <t>neue Rotation Distanz</t>
+  </si>
+  <si>
+    <t>Rotation Distance Calculator</t>
+  </si>
+  <si>
+    <t>Pressure Advance (Bowden)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length to best / </t>
+  </si>
+  <si>
+    <t>Länge bis zur besten Stelle</t>
+  </si>
+  <si>
+    <t>( change "," to "." )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +108,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,7 +135,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,10 +170,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -395,74 +463,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22.647429899999999</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50.54</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <f>D3*D4/D5</f>
+        <v>22.892022142919998</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>50.54</v>
-      </c>
-      <c r="C4">
-        <v>22.647429899999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7">
+        <f>D12*0.02</f>
+        <v>0.47600000000000003</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C7" s="1">
-        <f>C4*B4/B5</f>
-        <v>22.892022142919998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>23.8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="1">
-        <f>C12*0.02</f>
-        <v>0.47600000000000003</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calculator.xlsx
+++ b/Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53ba3363fdfe930c/Dokumente/GitHub/Vyper_extended/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A457F5BF-0579-4160-B1D2-CEBD6EB0C269}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8222F92F-3EEF-4240-B8A6-9A9B850868C7}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>50.54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="D7" s="3">
         <f>D3*D4/D5</f>
-        <v>22.892022142919998</v>
+        <v>23.100378498000001</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>14</v>

--- a/Calculator.xlsx
+++ b/Calculator.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Calculator.xlsx
+++ b/Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53ba3363fdfe930c/Dokumente/GitHub/Vyper_extended/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8222F92F-3EEF-4240-B8A6-9A9B850868C7}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF119A0-6A8D-4079-BE87-2E6696F4F894}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>mm</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>( change "," to "." )</t>
+  </si>
+  <si>
+    <t>Filament Dicke</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Filament Soll</t>
+  </si>
+  <si>
+    <t>Filament IST</t>
   </si>
 </sst>
 </file>
@@ -463,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>23.8</v>
+        <v>13.67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
@@ -568,13 +583,60 @@
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7">
-        <f>D12*0.02</f>
-        <v>0.47600000000000003</v>
+        <f>D12*0.005</f>
+        <v>6.8350000000000008E-2</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="1">
+        <f>H20*G19/G20</f>
+        <v>91.603053435114504</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="H20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calculator.xlsx
+++ b/Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53ba3363fdfe930c/Dokumente/GitHub/Vyper_extended/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF119A0-6A8D-4079-BE87-2E6696F4F894}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{F572DBAA-390E-480D-9774-1F6A6B426E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE3B9BA-CAEB-4349-89FF-FD859D88899F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="2040" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>mm</t>
   </si>
@@ -79,21 +79,6 @@
   </si>
   <si>
     <t>( change "," to "." )</t>
-  </si>
-  <si>
-    <t>Filament Dicke</t>
-  </si>
-  <si>
-    <t>Soll</t>
-  </si>
-  <si>
-    <t>IST</t>
-  </si>
-  <si>
-    <t>Filament Soll</t>
-  </si>
-  <si>
-    <t>Filament IST</t>
   </si>
 </sst>
 </file>
@@ -478,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,60 +568,13 @@
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7">
-        <f>D12*0.005</f>
-        <v>6.8350000000000008E-2</v>
+        <f>D12*0.02</f>
+        <v>0.27340000000000003</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="H19" s="1">
-        <f>H20*G19/G20</f>
-        <v>91.603053435114504</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.31</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.31</v>
-      </c>
-      <c r="H20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
